--- a/data/hotels_by_city/Dallas/Dallas_shard_624.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,477 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r551062018-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>30155</t>
+  </si>
+  <si>
+    <t>656024</t>
+  </si>
+  <si>
+    <t>551062018</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>We love this hotel</t>
+  </si>
+  <si>
+    <t>We come to the Dallas metro several times a year &amp; stay here during the cold months because of their indoor pool. This hotel is further from my grandma so when its warm enough for an outdoor pool we stay closer to her.  We have custody of our 6 year old granddaughter so hotel reservations are based on swimming pools! We have stayed here multiple times &amp; really love this hotel! My only complaint this time is the pool room is really cold, but I'm sure this latest arctic blast is to blame.  Everyone here is always friendly, the rooms are clean and their breakfast has always been awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>John P, Manager at Quality Inn Allen - Plano East, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>We come to the Dallas metro several times a year &amp; stay here during the cold months because of their indoor pool. This hotel is further from my grandma so when its warm enough for an outdoor pool we stay closer to her.  We have custody of our 6 year old granddaughter so hotel reservations are based on swimming pools! We have stayed here multiple times &amp; really love this hotel! My only complaint this time is the pool room is really cold, but I'm sure this latest arctic blast is to blame.  Everyone here is always friendly, the rooms are clean and their breakfast has always been awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r550320210-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>550320210</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Quality Time in Allen</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location and the breakfast was acceptable.  The room was relatively clean on the first day.  The subsequent nights we got fresh towels and the bed was made, but no real cleaning.  The staff was friendly except for the night desk clerk...a little too grumpy for customer interaction.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location and the breakfast was acceptable.  The room was relatively clean on the first day.  The subsequent nights we got fresh towels and the bed was made, but no real cleaning.  The staff was friendly except for the night desk clerk...a little too grumpy for customer interaction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r529766143-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>529766143</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Beds-and isn't that what you really want?</t>
+  </si>
+  <si>
+    <t>Room was clean,quiet and comfortable.I always travel with my own pillow,but would not have been necessary here. Beds and pillows were lovely.We had a slight plumbing issue that was taken care of immediately.The night manager,Diane,was very nice and informative. If there were problems earlier this year they must have been taken care of, as everyone we came in contact with was very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r497498934-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>497498934</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>I am awaiting police reports to make the rest of my review of this property.  This was the worst experience my</t>
+  </si>
+  <si>
+    <t>I am awaiting police reports to make the rest of my review of this property. I will be attaching them to this review in full detail.  This was the worst experience my family has ever had. I have been waiting on a phone call from The General Manager since 6/24/17. I have called multiple times and left multiple messages on how my family was treated and he has not called me back. We were left feeling very violated and discriminated against.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>John P, Manager at Quality Inn Allen - Plano East, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>I am awaiting police reports to make the rest of my review of this property. I will be attaching them to this review in full detail.  This was the worst experience my family has ever had. I have been waiting on a phone call from The General Manager since 6/24/17. I have called multiple times and left multiple messages on how my family was treated and he has not called me back. We were left feeling very violated and discriminated against.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r490481336-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>490481336</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>I believe the hotel was being remodeled. Room was not ready at check in when we arrived .  Some of our room was updated, but the bathroom was not. The rooms were very dirty as well as the hallways. My brothers room was dirty as well on the second floor. Our toilet was not secure and rocked and wobbled.  The refrigerator was rancid smelling and could not be used. The beds were comfortable and pillows were good.  The kids enjoyed the pool. The staff seemed very stress , but very friendly. I would check the rooms for cleanliness before ever staying again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>I believe the hotel was being remodeled. Room was not ready at check in when we arrived .  Some of our room was updated, but the bathroom was not. The rooms were very dirty as well as the hallways. My brothers room was dirty as well on the second floor. Our toilet was not secure and rocked and wobbled.  The refrigerator was rancid smelling and could not be used. The beds were comfortable and pillows were good.  The kids enjoyed the pool. The staff seemed very stress , but very friendly. I would check the rooms for cleanliness before ever staying again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r470650367-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>470650367</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Old food under the bed!</t>
+  </si>
+  <si>
+    <t>We had an emergency and had to book a hotel asap. Check in took almost 20 minutes. Old granola bar among other unknown things found under the bed. I do  not recommend this hotel if you want something clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>We had an emergency and had to book a hotel asap. Check in took almost 20 minutes. Old granola bar among other unknown things found under the bed. I do  not recommend this hotel if you want something clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r449358566-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>449358566</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Outstanding value! Great bed, nice rooms.</t>
+  </si>
+  <si>
+    <t>We stayed one night in this hotel for a race the following morning in Allen and we'd definitely stay here again!PROs: Easy location, great beds, and nice rooms.CONs: The building itself and hallway are a little old and dated, but this was easily overcome by the great conditions of the rooms.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r434564405-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>434564405</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location, reasonable price, predictable </t>
+  </si>
+  <si>
+    <t>Standard Quality Inn experience, breakfast warm and clean area, some staff hit or miss during our multiple stays, good access from highway. Check in quick, large area and breakfast area off check in to meet and greet.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r401372539-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>401372539</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Best location,and great place to stay.lots of restaurants,has a indoor pool,and hot tub.Great services from everyone,the room was very nice and everything work.Good service checking in and out,we stayed five days and had a great time.Everything was clean and neat.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r370796356-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>370796356</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Southern Hospitality</t>
+  </si>
+  <si>
+    <t>The staff was incredibly helpful and polite. They went above and beyond my expectations. I will defenintly stay here again. The hotel environment was clean and I especially loved the waffle I had for breakfast in the shape of Texas. What a great touch to remind me of home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>The staff was incredibly helpful and polite. They went above and beyond my expectations. I will defenintly stay here again. The hotel environment was clean and I especially loved the waffle I had for breakfast in the shape of Texas. What a great touch to remind me of home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r364982190-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>364982190</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Good basic accommodations!</t>
+  </si>
+  <si>
+    <t>We were in TX for a weekend wedding &amp; not wanting to pay $100-$150 per night at the competing hotel, my wife found this gem of a hotel literally right down the road from the other hotel!!  If you need good basic accommodations for a reasonable price here's your place...(if you want a four star experience &amp; the price that goes with it try down the road!). We'd stay again, but the property is a little dated &amp; needs to be sprussed up a little but that aside  the staff was friendly &amp; hospitable &amp; the property was clean.  Good value for your money &amp; we'd recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>We were in TX for a weekend wedding &amp; not wanting to pay $100-$150 per night at the competing hotel, my wife found this gem of a hotel literally right down the road from the other hotel!!  If you need good basic accommodations for a reasonable price here's your place...(if you want a four star experience &amp; the price that goes with it try down the road!). We'd stay again, but the property is a little dated &amp; needs to be sprussed up a little but that aside  the staff was friendly &amp; hospitable &amp; the property was clean.  Good value for your money &amp; we'd recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r362321811-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>362321811</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Great staff, location</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 nights with 2 adults and 5 middle school students.  The hotel was clean, quiet and in good repair.  We felt safe allowing the kids to stay in their own rooms (3 girls in one and 2 boys in the other).  The Allen police dept is just up the street for added sense of security. The indoor pool was nice, clean, good hot tub and plenty of sitting area to watch the kids play.  The breakfast area was a little small, but well-stocked with a good selection. Everyone enjoyed the hot drink machine (coffee, cappuccino, hot water, etc).I would say the best feature of this hotel is the staff.  They were very friendly, helpful and accommodating.  Even the housekeeping staff would greet you when passing in the hallways.  Diane at the front desk was especially friendly and helpful in suggesting local eateries and driving directions.  I can't say enough great things about the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 nights with 2 adults and 5 middle school students.  The hotel was clean, quiet and in good repair.  We felt safe allowing the kids to stay in their own rooms (3 girls in one and 2 boys in the other).  The Allen police dept is just up the street for added sense of security. The indoor pool was nice, clean, good hot tub and plenty of sitting area to watch the kids play.  The breakfast area was a little small, but well-stocked with a good selection. Everyone enjoyed the hot drink machine (coffee, cappuccino, hot water, etc).I would say the best feature of this hotel is the staff.  They were very friendly, helpful and accommodating.  Even the housekeeping staff would greet you when passing in the hallways.  Diane at the front desk was especially friendly and helpful in suggesting local eateries and driving directions.  I can't say enough great things about the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r357322635-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>357322635</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Decent stay,  Friendly people</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights.   Beds comfortable and they give you lots of pillows!   Pool and hot tub nice to have also.   Room was clean, however very humid and air conditioning not quite right.   I did let staff know,  but I chose not to change rooms.  Staff was extremely helpful and courteous.   My only complaint was they were out of cream cheese and syrup for 2 days.   Seems like they could have gone to get some.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights.   Beds comfortable and they give you lots of pillows!   Pool and hot tub nice to have also.   Room was clean, however very humid and air conditioning not quite right.   I did let staff know,  but I chose not to change rooms.  Staff was extremely helpful and courteous.   My only complaint was they were out of cream cheese and syrup for 2 days.   Seems like they could have gone to get some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r348901049-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>348901049</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Great clean. Will recommend to others.</t>
+  </si>
+  <si>
+    <t>Check in weekday evening out noon next day.  Room very clean, Bedding very comfortable  shower great. Large T.v. screen.  Wow!  Indoor large pool and hot tub. All very clean.  Staff very friendly, Breakfast included in stay..  I will refer others to stay here. Near shopping and many restaurants/MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Jessica B, Owner at Quality Inn Allen - Plano East, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Check in weekday evening out noon next day.  Room very clean, Bedding very comfortable  shower great. Large T.v. screen.  Wow!  Indoor large pool and hot tub. All very clean.  Staff very friendly, Breakfast included in stay..  I will refer others to stay here. Near shopping and many restaurants/More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r347637438-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>347637438</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentine's Trip </t>
+  </si>
+  <si>
+    <t>The staff is wonderful.  The breakfast is very good with a variety of selections.  The rooms are very comfortable and we feel very safe and secure.  The hotel is close to  attractions, shopping and food.  We will stay here again.  The grand babies love the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is wonderful.  The breakfast is very good with a variety of selections.  The rooms are very comfortable and we feel very safe and secure.  The hotel is close to  attractions, shopping and food.  We will stay here again.  The grand babies love the pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r338770617-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>338770617</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Wost hotel!!! Rude Management!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lady at the desk was so rude!!! She had an attitude from the moment we walked in!!! She told me she had other customers that were more important!! I will never ever stay here again. Instead of trying to make us happy she would have been fine with us leaving so she wouldn't have to deal with checking us in!! The sink was stopped up and nasty!! Old rooms! Never again!!!!!!!! </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r338647718-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>338647718</t>
+  </si>
+  <si>
+    <t>Can't make a silk purse if a sow's ear</t>
+  </si>
+  <si>
+    <t>They have obviously made a lot of efforts to remodel/update this motel. The problem, updates are superficial.  I stepped into the shower, and in order to get even warm water, the flow slowed to a trickle.  To get enough water flow to penetrate my hair, I had to take a cold shower, and in the middle of winter!  The bathroom was dirty with  what appeared to be dog hair. The door wouldn't lock. But the bed was comfortable, and the indoor pool is very nice.  Unfortunately, the water problems ruined the place for me.  I won't return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r320792302-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>320792302</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Very nice budget hotel in Allen</t>
+  </si>
+  <si>
+    <t>This hotel was very well kept.  Good wifi, good breakfast, refrigerator, microwave, coffee maker, computer desk, indoor pool.  Very satisfied.  Front desk service was good. Plenty of free parking.  Two restaurants within walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r286817431-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>286817431</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>I could tell it was once a cute little hotel. Pool area was great but pool needs refinishing or something along with hot tub, appears dirty eventhough I am pretty sure it's not. Staff was great! Can't say enough about Sheila aka "Speedy". There to help us with anything we needed. We wanted to take her home with us just for the company. Great personality!! Continental breakfast was sufficient and coffee excellent.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r283310212-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>283310212</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Returning this year</t>
+  </si>
+  <si>
+    <t>We stayed at the Pyramids Hotel last year for several weeks.  We were visiting family in Allen and wanted a clean and safe place for our kids.  We had visited several of the usual small road-side hotels and some of the nicer small hotels but non worked.  The Pyramids was the cleanest, best priced and safest option close to our family in Allen.  The staff was courteous and attentive.  The biggest selling point though was the cleanliness.  I haven't stayed in a place this clean for this price, ever.  We're definitely coming back.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r279612244-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>279612244</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Jessica, Thank you for requesting feedback.  We've visited Pyramids for the past fifteen years.  Unfailingly, we are greeted warmly and are treated like family.  It was such a pleasure to know Mohammed and to know that he was someone we could count on for a pleasant visit.  He watched our grandchildren grow up and welcomed them warmly,I must mention Sheila Jackson; when we see her, we smile, we know that our visit will be delightful.   Sheila is a constant in our visits to The Pyramids.  We love and appreciate her unfailing kindness.The Pyramids is definitely family-friendly; the rooms are clean, the rates are very reasonable, and that pool is the magnet for our grandchildren.  Thank you for a warm, comfortable environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Jessica, Thank you for requesting feedback.  We've visited Pyramids for the past fifteen years.  Unfailingly, we are greeted warmly and are treated like family.  It was such a pleasure to know Mohammed and to know that he was someone we could count on for a pleasant visit.  He watched our grandchildren grow up and welcomed them warmly,I must mention Sheila Jackson; when we see her, we smile, we know that our visit will be delightful.   Sheila is a constant in our visits to The Pyramids.  We love and appreciate her unfailing kindness.The Pyramids is definitely family-friendly; the rooms are clean, the rates are very reasonable, and that pool is the magnet for our grandchildren.  Thank you for a warm, comfortable environment.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1116,1301 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_624.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>558leanng</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We come to the Dallas metro several times a year &amp; stay here during the cold months because of their indoor pool. This hotel is further from my grandma so when its warm enough for an outdoor pool we stay closer to her.  We have custody of our 6 year old granddaughter so hotel reservations are based on swimming pools! We have stayed here multiple times &amp; really love this hotel! My only complaint this time is the pool room is really cold, but I'm sure this latest arctic blast is to blame.  Everyone here is always friendly, the rooms are clean and their breakfast has always been awesome!More</t>
   </si>
   <si>
+    <t>collen343</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r550320210-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The hotel is in a great location and the breakfast was acceptable.  The room was relatively clean on the first day.  The subsequent nights we got fresh towels and the bed was made, but no real cleaning.  The staff was friendly except for the night desk clerk...a little too grumpy for customer interaction.More</t>
   </si>
   <si>
+    <t>_mlwctx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r529766143-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Stampley3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r497498934-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>I am awaiting police reports to make the rest of my review of this property. I will be attaching them to this review in full detail.  This was the worst experience my family has ever had. I have been waiting on a phone call from The General Manager since 6/24/17. I have called multiple times and left multiple messages on how my family was treated and he has not called me back. We were left feeling very violated and discriminated against.More</t>
   </si>
   <si>
+    <t>Kelly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r490481336-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>I believe the hotel was being remodeled. Room was not ready at check in when we arrived .  Some of our room was updated, but the bathroom was not. The rooms were very dirty as well as the hallways. My brothers room was dirty as well on the second floor. Our toilet was not secure and rocked and wobbled.  The refrigerator was rancid smelling and could not be used. The beds were comfortable and pillows were good.  The kids enjoyed the pool. The staff seemed very stress , but very friendly. I would check the rooms for cleanliness before ever staying again.  More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r470650367-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>We had an emergency and had to book a hotel asap. Check in took almost 20 minutes. Old granola bar among other unknown things found under the bed. I do  not recommend this hotel if you want something clean. More</t>
   </si>
   <si>
+    <t>Gary K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r449358566-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Michael R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r434564405-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>mwestbrook19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r401372539-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Angela S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r370796356-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t>The staff was incredibly helpful and polite. They went above and beyond my expectations. I will defenintly stay here again. The hotel environment was clean and I especially loved the waffle I had for breakfast in the shape of Texas. What a great touch to remind me of home.More</t>
   </si>
   <si>
+    <t>pumpkee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r364982190-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>We were in TX for a weekend wedding &amp; not wanting to pay $100-$150 per night at the competing hotel, my wife found this gem of a hotel literally right down the road from the other hotel!!  If you need good basic accommodations for a reasonable price here's your place...(if you want a four star experience &amp; the price that goes with it try down the road!). We'd stay again, but the property is a little dated &amp; needs to be sprussed up a little but that aside  the staff was friendly &amp; hospitable &amp; the property was clean.  Good value for your money &amp; we'd recommend!More</t>
   </si>
   <si>
+    <t>Kay C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r362321811-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>I stayed at this hotel for 2 nights with 2 adults and 5 middle school students.  The hotel was clean, quiet and in good repair.  We felt safe allowing the kids to stay in their own rooms (3 girls in one and 2 boys in the other).  The Allen police dept is just up the street for added sense of security. The indoor pool was nice, clean, good hot tub and plenty of sitting area to watch the kids play.  The breakfast area was a little small, but well-stocked with a good selection. Everyone enjoyed the hot drink machine (coffee, cappuccino, hot water, etc).I would say the best feature of this hotel is the staff.  They were very friendly, helpful and accommodating.  Even the housekeeping staff would greet you when passing in the hallways.  Diane at the front desk was especially friendly and helpful in suggesting local eateries and driving directions.  I can't say enough great things about the staff!More</t>
   </si>
   <si>
+    <t>balletdnsr37127</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r357322635-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -465,6 +504,9 @@
     <t>Stayed 3 nights.   Beds comfortable and they give you lots of pillows!   Pool and hot tub nice to have also.   Room was clean, however very humid and air conditioning not quite right.   I did let staff know,  but I chose not to change rooms.  Staff was extremely helpful and courteous.   My only complaint was they were out of cream cheese and syrup for 2 days.   Seems like they could have gone to get some.More</t>
   </si>
   <si>
+    <t>Katherine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r348901049-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t>Check in weekday evening out noon next day.  Room very clean, Bedding very comfortable  shower great. Large T.v. screen.  Wow!  Indoor large pool and hot tub. All very clean.  Staff very friendly, Breakfast included in stay..  I will refer others to stay here. Near shopping and many restaurants/More</t>
   </si>
   <si>
+    <t>Jeannie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r347637438-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>The staff is wonderful.  The breakfast is very good with a variety of selections.  The rooms are very comfortable and we feel very safe and secure.  The hotel is close to  attractions, shopping and food.  We will stay here again.  The grand babies love the pool.More</t>
   </si>
   <si>
+    <t>Kloie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r338770617-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -528,6 +576,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Rose S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r338647718-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -540,6 +591,9 @@
     <t>They have obviously made a lot of efforts to remodel/update this motel. The problem, updates are superficial.  I stepped into the shower, and in order to get even warm water, the flow slowed to a trickle.  To get enough water flow to penetrate my hair, I had to take a cold shower, and in the middle of winter!  The bathroom was dirty with  what appeared to be dog hair. The door wouldn't lock. But the bed was comfortable, and the indoor pool is very nice.  Unfortunately, the water problems ruined the place for me.  I won't return.</t>
   </si>
   <si>
+    <t>Pickledgringo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r320792302-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>This hotel was very well kept.  Good wifi, good breakfast, refrigerator, microwave, coffee maker, computer desk, indoor pool.  Very satisfied.  Front desk service was good. Plenty of free parking.  Two restaurants within walking distance.</t>
   </si>
   <si>
+    <t>Overtime M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r286817431-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -573,6 +630,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>MLolovic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r283310212-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -589,6 +649,9 @@
   </si>
   <si>
     <t>September 2014</t>
+  </si>
+  <si>
+    <t>questionsandanswers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r279612244-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -1120,43 +1183,47 @@
       <c r="A2" t="n">
         <v>33379</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1172,56 +1239,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33379</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1237,56 +1308,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33379</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1304,50 +1379,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33379</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1365,56 +1444,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33379</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1426,56 +1509,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33379</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1487,56 +1574,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33379</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1554,50 +1645,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33379</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>832</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1611,50 +1706,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33379</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
         <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" t="s">
-        <v>104</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1668,50 +1767,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33379</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>3855</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1723,56 +1826,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33379</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1784,56 +1891,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33379</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>48747</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1851,56 +1962,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33379</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1916,56 +2031,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33379</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>9114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -1983,56 +2102,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33379</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2044,56 +2167,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33379</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2107,50 +2234,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33379</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>51051</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2164,41 +2295,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33379</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -2217,50 +2352,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33379</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2278,50 +2417,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33379</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2341,50 +2484,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33379</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2402,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_624.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_624.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>558leanng</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r571427385-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>30155</t>
+  </si>
+  <si>
+    <t>656024</t>
+  </si>
+  <si>
+    <t>571427385</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We have no complaints about our stay here.  Our room was spacious (a jacuzzi suite) and it was clean.  The bed was comfy and wifi was mostly good…would get slow occasionally ... after more people had checked in, I suppose.  The breakfast area is small and the usual fare.  The desk attendant who checked us out was so gracious and friendly.  I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LQ6237GM, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>We have no complaints about our stay here.  Our room was spacious (a jacuzzi suite) and it was clean.  The bed was comfy and wifi was mostly good…would get slow occasionally ... after more people had checked in, I suppose.  The breakfast area is small and the usual fare.  The desk attendant who checked us out was so gracious and friendly.  I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r554872983-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>554872983</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Will not stay again</t>
+  </si>
+  <si>
+    <t>We stayed here two years ago and didn’t have any problems so we booked it again this trip. This will be our last time.  We checked in at 5:30pm and one of the receptionists has to go check and see if our room was done. Even when I told them we would arrive between 5-6. Check in is at 3:00. Later in the evening we decided to get ice and the lid of our ice bucket was dirty with food so we had to go and ask for a new one. At 9:00pm we stepped outside. When we came back to our room there was lady and her daughter sitting in the hallway. Their room was being cleaned!  Not spending the money to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here two years ago and didn’t have any problems so we booked it again this trip. This will be our last time.  We checked in at 5:30pm and one of the receptionists has to go check and see if our room was done. Even when I told them we would arrive between 5-6. Check in is at 3:00. Later in the evening we decided to get ice and the lid of our ice bucket was dirty with food so we had to go and ask for a new one. At 9:00pm we stepped outside. When we came back to our room there was lady and her daughter sitting in the hallway. Their room was being cleaned!  Not spending the money to stay here again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r551062018-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
-    <t>30155</t>
-  </si>
-  <si>
-    <t>656024</t>
-  </si>
-  <si>
     <t>551062018</t>
   </si>
   <si>
@@ -174,12 +228,6 @@
     <t>We come to the Dallas metro several times a year &amp; stay here during the cold months because of their indoor pool. This hotel is further from my grandma so when its warm enough for an outdoor pool we stay closer to her.  We have custody of our 6 year old granddaughter so hotel reservations are based on swimming pools! We have stayed here multiple times &amp; really love this hotel! My only complaint this time is the pool room is really cold, but I'm sure this latest arctic blast is to blame.  Everyone here is always friendly, the rooms are clean and their breakfast has always been awesome!MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>John P, Manager at Quality Inn Allen - Plano East, responded to this reviewResponded January 19, 2018</t>
   </si>
   <si>
@@ -189,9 +237,6 @@
     <t>We come to the Dallas metro several times a year &amp; stay here during the cold months because of their indoor pool. This hotel is further from my grandma so when its warm enough for an outdoor pool we stay closer to her.  We have custody of our 6 year old granddaughter so hotel reservations are based on swimming pools! We have stayed here multiple times &amp; really love this hotel! My only complaint this time is the pool room is really cold, but I'm sure this latest arctic blast is to blame.  Everyone here is always friendly, the rooms are clean and their breakfast has always been awesome!More</t>
   </si>
   <si>
-    <t>collen343</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r550320210-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -219,9 +264,6 @@
     <t>The hotel is in a great location and the breakfast was acceptable.  The room was relatively clean on the first day.  The subsequent nights we got fresh towels and the bed was made, but no real cleaning.  The staff was friendly except for the night desk clerk...a little too grumpy for customer interaction.More</t>
   </si>
   <si>
-    <t>_mlwctx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r529766143-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -240,7 +282,43 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Stampley3</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r526751876-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>526751876</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Stop over to Houston</t>
+  </si>
+  <si>
+    <t>Rooms are clean and the beds are comfy. Rooms have a microwave and a mini fridge. Has a desk and free wifi. We had a hard time trying to get to it because of our gps but it was worth it. Next to a Dickeys bbq</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r505876271-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>505876271</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>NEVER STAY HERE ---UNSCRUPULOUS MANAGEMENT !!!</t>
+  </si>
+  <si>
+    <t>I booked and paid for a nonrefundable reservation back on March 15 for three nights July 22-25.I received notice 48 hours before our arrival saying they were "overbooked".  Please remember my first line.Contract law has a thing called "consideration" to have a valid contract.  If someone pays something in advance and that money was taken ( my credit card was billed in March) then the accepting party needs to  uphold that reservation.When I called the hotel, the receptionist said there was no manager on site to talk to.When I inquired on how this could happen about not  upholding my reservation -- she said, "we credited your card today and you should see that balance in about 10 days."When I inquired about not having a place to stay  and 48 hours notice is unacceptable when I paid back on March 15 -- she hung up on me !Do you want to stay at a place that will cancel you on a moments notice, basically putting you out on the street and not caring a bit about the customer !I sure would NEVER do business with this place !!!!!  NEVER !!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I booked and paid for a nonrefundable reservation back on March 15 for three nights July 22-25.I received notice 48 hours before our arrival saying they were "overbooked".  Please remember my first line.Contract law has a thing called "consideration" to have a valid contract.  If someone pays something in advance and that money was taken ( my credit card was billed in March) then the accepting party needs to  uphold that reservation.When I called the hotel, the receptionist said there was no manager on site to talk to.When I inquired on how this could happen about not  upholding my reservation -- she said, "we credited your card today and you should see that balance in about 10 days."When I inquired about not having a place to stay  and 48 hours notice is unacceptable when I paid back on March 15 -- she hung up on me !Do you want to stay at a place that will cancel you on a moments notice, basically putting you out on the street and not caring a bit about the customer !I sure would NEVER do business with this place !!!!!  NEVER !!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r497498934-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -273,9 +351,6 @@
     <t>I am awaiting police reports to make the rest of my review of this property. I will be attaching them to this review in full detail.  This was the worst experience my family has ever had. I have been waiting on a phone call from The General Manager since 6/24/17. I have called multiple times and left multiple messages on how my family was treated and he has not called me back. We were left feeling very violated and discriminated against.More</t>
   </si>
   <si>
-    <t>Kelly B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r490481336-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -300,9 +375,6 @@
     <t>I believe the hotel was being remodeled. Room was not ready at check in when we arrived .  Some of our room was updated, but the bathroom was not. The rooms were very dirty as well as the hallways. My brothers room was dirty as well on the second floor. Our toilet was not secure and rocked and wobbled.  The refrigerator was rancid smelling and could not be used. The beds were comfortable and pillows were good.  The kids enjoyed the pool. The staff seemed very stress , but very friendly. I would check the rooms for cleanliness before ever staying again.  More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r470650367-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -330,7 +402,49 @@
     <t>We had an emergency and had to book a hotel asap. Check in took almost 20 minutes. Old granola bar among other unknown things found under the bed. I do  not recommend this hotel if you want something clean. More</t>
   </si>
   <si>
-    <t>Gary K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r468701282-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>468701282</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel- Great Location</t>
+  </si>
+  <si>
+    <t>My son and his kids and I went to the Texas Legends game, They absolutely  loved the inside swimming pool. There was a great breakfast. Great locale if you want to shop at the outlet shops.. Plan on going backMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>My son and his kids and I went to the Texas Legends game, They absolutely  loved the inside swimming pool. There was a great breakfast. Great locale if you want to shop at the outlet shops.. Plan on going backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r451952424-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>451952424</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Poor Hotel - poor service</t>
+  </si>
+  <si>
+    <t>The exterior leaves a lot to be desired, but the service is worse.   3:00 pm means 3:00 pm.  Don't ask to check into this dump even if there are a ton of open rooms that are ready to be cleaned.  They want an extra fee for getting here 28 minutes early.   Want to talk to a manager?  Not going to happen.  Apparently she doesn't work weekends.  If I were running a section 8 looking place like this, I would be here 24/7 to fix the issues.    There is a beautiful hampton, hilton garden, and many other better choices for the money.  Don't make the mistake that I did.  MoreShow less</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded January 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2017</t>
+  </si>
+  <si>
+    <t>The exterior leaves a lot to be desired, but the service is worse.   3:00 pm means 3:00 pm.  Don't ask to check into this dump even if there are a ton of open rooms that are ready to be cleaned.  They want an extra fee for getting here 28 minutes early.   Want to talk to a manager?  Not going to happen.  Apparently she doesn't work weekends.  If I were running a section 8 looking place like this, I would be here 24/7 to fix the issues.    There is a beautiful hampton, hilton garden, and many other better choices for the money.  Don't make the mistake that I did.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r449358566-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -351,12 +465,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Michael R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r434564405-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -375,9 +483,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>mwestbrook19</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r401372539-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -396,7 +501,49 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Angela S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r395513981-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>395513981</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>What a change!!</t>
+  </si>
+  <si>
+    <t>What a difference a Choice hotel makes!! I had stayed in this hotel twice when it was Pyramid; first time just for fun and was so very disappointed, second time out of necessity and nothing had changed. My husband and I were going to be in Allen for a couple of days and decided we'd find a place to stay of driving back and forth to Arlington. We stay at Choice hotels when we can, as they are always clean with wonderful service. And that's exactly what we got here - a Choice hotel that lived up to their reputation. Diane was at the front desk and what a joy she was. There was new carpet, new paint schemes and the place looked beautiful!! We will definitely use this hotel again and again and will look forward to a peaceful night's sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>What a difference a Choice hotel makes!! I had stayed in this hotel twice when it was Pyramid; first time just for fun and was so very disappointed, second time out of necessity and nothing had changed. My husband and I were going to be in Allen for a couple of days and decided we'd find a place to stay of driving back and forth to Arlington. We stay at Choice hotels when we can, as they are always clean with wonderful service. And that's exactly what we got here - a Choice hotel that lived up to their reputation. Diane was at the front desk and what a joy she was. There was new carpet, new paint schemes and the place looked beautiful!! We will definitely use this hotel again and again and will look forward to a peaceful night's sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r392543045-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>392543045</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Accidentally In allen</t>
+  </si>
+  <si>
+    <t>Due to many hotels being sold out closer to where I needed to be (Rowlett), I ended up in Allen. Hotel room was clean, and front desk clerk was friendly and accommodating. No guest laundry area at hotel. Dickies (bbq) and Mexican restaurant next door for food, both walking distance. Parking lot not very big, would not recommend for large truck/trailers. I slept great, bed was comfortable. Hotel was quiet and is a smoke free facility.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Due to many hotels being sold out closer to where I needed to be (Rowlett), I ended up in Allen. Hotel room was clean, and front desk clerk was friendly and accommodating. No guest laundry area at hotel. Dickies (bbq) and Mexican restaurant next door for food, both walking distance. Parking lot not very big, would not recommend for large truck/trailers. I slept great, bed was comfortable. Hotel was quiet and is a smoke free facility.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r370796356-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -417,9 +564,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>John P, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded June 13, 2016</t>
   </si>
   <si>
@@ -429,9 +573,6 @@
     <t>The staff was incredibly helpful and polite. They went above and beyond my expectations. I will defenintly stay here again. The hotel environment was clean and I especially loved the waffle I had for breakfast in the shape of Texas. What a great touch to remind me of home.More</t>
   </si>
   <si>
-    <t>pumpkee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r364982190-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -456,9 +597,6 @@
     <t>We were in TX for a weekend wedding &amp; not wanting to pay $100-$150 per night at the competing hotel, my wife found this gem of a hotel literally right down the road from the other hotel!!  If you need good basic accommodations for a reasonable price here's your place...(if you want a four star experience &amp; the price that goes with it try down the road!). We'd stay again, but the property is a little dated &amp; needs to be sprussed up a little but that aside  the staff was friendly &amp; hospitable &amp; the property was clean.  Good value for your money &amp; we'd recommend!More</t>
   </si>
   <si>
-    <t>Kay C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r362321811-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -480,7 +618,43 @@
     <t>I stayed at this hotel for 2 nights with 2 adults and 5 middle school students.  The hotel was clean, quiet and in good repair.  We felt safe allowing the kids to stay in their own rooms (3 girls in one and 2 boys in the other).  The Allen police dept is just up the street for added sense of security. The indoor pool was nice, clean, good hot tub and plenty of sitting area to watch the kids play.  The breakfast area was a little small, but well-stocked with a good selection. Everyone enjoyed the hot drink machine (coffee, cappuccino, hot water, etc).I would say the best feature of this hotel is the staff.  They were very friendly, helpful and accommodating.  Even the housekeeping staff would greet you when passing in the hallways.  Diane at the front desk was especially friendly and helpful in suggesting local eateries and driving directions.  I can't say enough great things about the staff!More</t>
   </si>
   <si>
-    <t>balletdnsr37127</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r361015044-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>361015044</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Amazing place</t>
+  </si>
+  <si>
+    <t>We booked this hotel because it had an indoor pool.. but it was an amazing place ALL over!!! Staff went above and beyond their job. Very nice, interacting with the kids. Great breakfast!, clean rooms! Was the best hotel I've stayed in, in a long time.. the ONLY issue we had.. was the keys kept deactivating when we put them need anything with a battery in it .. other than that , I'd recommend this place over and over again! MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this hotel because it had an indoor pool.. but it was an amazing place ALL over!!! Staff went above and beyond their job. Very nice, interacting with the kids. Great breakfast!, clean rooms! Was the best hotel I've stayed in, in a long time.. the ONLY issue we had.. was the keys kept deactivating when we put them need anything with a battery in it .. other than that , I'd recommend this place over and over again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r360496543-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>360496543</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Amazing hotel for the price!</t>
+  </si>
+  <si>
+    <t>When pulling up to this hotel it looks great!  When walking into the lobby it is very clean and inviting, the staff is very friendly and was able to recommend some great places to eat.  The room was very clean and roomy!  Beds were very comfortable.  The pool area was great with a sauna and spa.  The breakfast in the morning was great and apparently they have different selections each morning.  Over all this hotel is great for the price and I would recommend anyone to stay here if its business or pleasure its an awesome hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>When pulling up to this hotel it looks great!  When walking into the lobby it is very clean and inviting, the staff is very friendly and was able to recommend some great places to eat.  The room was very clean and roomy!  Beds were very comfortable.  The pool area was great with a sauna and spa.  The breakfast in the morning was great and apparently they have different selections each morning.  Over all this hotel is great for the price and I would recommend anyone to stay here if its business or pleasure its an awesome hotel!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r357322635-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -498,15 +672,9 @@
     <t>Stayed 3 nights.   Beds comfortable and they give you lots of pillows!   Pool and hot tub nice to have also.   Room was clean, however very humid and air conditioning not quite right.   I did let staff know,  but I chose not to change rooms.  Staff was extremely helpful and courteous.   My only complaint was they were out of cream cheese and syrup for 2 days.   Seems like they could have gone to get some.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Stayed 3 nights.   Beds comfortable and they give you lots of pillows!   Pool and hot tub nice to have also.   Room was clean, however very humid and air conditioning not quite right.   I did let staff know,  but I chose not to change rooms.  Staff was extremely helpful and courteous.   My only complaint was they were out of cream cheese and syrup for 2 days.   Seems like they could have gone to get some.More</t>
   </si>
   <si>
-    <t>Katherine S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r348901049-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -534,9 +702,6 @@
     <t>Check in weekday evening out noon next day.  Room very clean, Bedding very comfortable  shower great. Large T.v. screen.  Wow!  Indoor large pool and hot tub. All very clean.  Staff very friendly, Breakfast included in stay..  I will refer others to stay here. Near shopping and many restaurants/More</t>
   </si>
   <si>
-    <t>Jeannie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r347637438-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -555,7 +720,46 @@
     <t>The staff is wonderful.  The breakfast is very good with a variety of selections.  The rooms are very comfortable and we feel very safe and secure.  The hotel is close to  attractions, shopping and food.  We will stay here again.  The grand babies love the pool.More</t>
   </si>
   <si>
-    <t>Kloie K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r342730631-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>342730631</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>First of all, I really appreciated the staff at this hotel.  I made an error in my reservation, which the manager was able to rectify in a friendly manner.  They also gave us advise in how to spend some extra time around town, find a good restaurant, and served a reasonable breakfast.   They also helped with a late checkout.  Aside from the staff, the hotel is clean but dated.  The soda machine wouldn't take our money and some of the doors were propped open during the day.  The carpets were worn in areas.  There is a fitness room, but it is in a partial room with inadequate ventilation and one each of a treadmill, elliptical, and bicycle.  The hot tub and pool are two of the nicer features in the hotel and we enjoyed using them.  There is also a nice sauna in the pool area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>First of all, I really appreciated the staff at this hotel.  I made an error in my reservation, which the manager was able to rectify in a friendly manner.  They also gave us advise in how to spend some extra time around town, find a good restaurant, and served a reasonable breakfast.   They also helped with a late checkout.  Aside from the staff, the hotel is clean but dated.  The soda machine wouldn't take our money and some of the doors were propped open during the day.  The carpets were worn in areas.  There is a fitness room, but it is in a partial room with inadequate ventilation and one each of a treadmill, elliptical, and bicycle.  The hot tub and pool are two of the nicer features in the hotel and we enjoyed using them.  There is also a nice sauna in the pool area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r340331054-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>340331054</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great newer hotel! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay in Comfort hotels often on the west coast, and this is very nice, clean, and especially a good value. Near to premium outlets, shopping center and Cabela's too. Indoor pool is a nice amenity. All the staff I came in contact with were friendly and knowledgeable. The location was convenient to the McKinley Medical Center where family member was scheduled for surgery.  </t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r338770617-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -573,12 +777,6 @@
     <t xml:space="preserve">The lady at the desk was so rude!!! She had an attitude from the moment we walked in!!! She told me she had other customers that were more important!! I will never ever stay here again. Instead of trying to make us happy she would have been fine with us leaving so she wouldn't have to deal with checking us in!! The sink was stopped up and nasty!! Old rooms! Never again!!!!!!!! </t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>Rose S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r338647718-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -591,9 +789,6 @@
     <t>They have obviously made a lot of efforts to remodel/update this motel. The problem, updates are superficial.  I stepped into the shower, and in order to get even warm water, the flow slowed to a trickle.  To get enough water flow to penetrate my hair, I had to take a cold shower, and in the middle of winter!  The bathroom was dirty with  what appeared to be dog hair. The door wouldn't lock. But the bed was comfortable, and the indoor pool is very nice.  Unfortunately, the water problems ruined the place for me.  I won't return.</t>
   </si>
   <si>
-    <t>Pickledgringo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r320792302-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -609,7 +804,40 @@
     <t>This hotel was very well kept.  Good wifi, good breakfast, refrigerator, microwave, coffee maker, computer desk, indoor pool.  Very satisfied.  Front desk service was good. Plenty of free parking.  Two restaurants within walking distance.</t>
   </si>
   <si>
-    <t>Overtime M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r306534353-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>306534353</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for a short stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We chose this hotel because it was handy to the outlet stores at a reasonable rate.  The staff were very helpful but the room was small and had a musty smell; the door to where our car was parked didn't open from the outside and the air conditioner was noisey but not as noisey as the birds nesting outside our window who seemed happiest at 3am...Its an ok hotel if you can get it at the right price </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r291139703-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>291139703</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surprisingly delightful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and accommodating.  Manager went out of her way to make us feel comfortable.  Very nice pool area. VERY comfortable beds and bedding...and I don't sleep well at hotels. Breakfast area could use a little improvement. Overall great! </t>
+  </si>
+  <si>
+    <t>July 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r286817431-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
@@ -627,12 +855,6 @@
     <t>I could tell it was once a cute little hotel. Pool area was great but pool needs refinishing or something along with hot tub, appears dirty eventhough I am pretty sure it's not. Staff was great! Can't say enough about Sheila aka "Speedy". There to help us with anything we needed. We wanted to take her home with us just for the company. Great personality!! Continental breakfast was sufficient and coffee excellent.</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>MLolovic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r283310212-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -651,9 +873,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>questionsandanswers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r279612244-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
   </si>
   <si>
@@ -669,9 +888,6 @@
     <t>Jessica, Thank you for requesting feedback.  We've visited Pyramids for the past fifteen years.  Unfailingly, we are greeted warmly and are treated like family.  It was such a pleasure to know Mohammed and to know that he was someone we could count on for a pleasant visit.  He watched our grandchildren grow up and welcomed them warmly,I must mention Sheila Jackson; when we see her, we smile, we know that our visit will be delightful.   Sheila is a constant in our visits to The Pyramids.  We love and appreciate her unfailing kindness.The Pyramids is definitely family-friendly; the rooms are clean, the rates are very reasonable, and that pool is the magnet for our grandchildren.  Thank you for a warm, comfortable environment.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Jessica B, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded June 15, 2015</t>
   </si>
   <si>
@@ -679,6 +895,33 @@
   </si>
   <si>
     <t>Jessica, Thank you for requesting feedback.  We've visited Pyramids for the past fifteen years.  Unfailingly, we are greeted warmly and are treated like family.  It was such a pleasure to know Mohammed and to know that he was someone we could count on for a pleasant visit.  He watched our grandchildren grow up and welcomed them warmly,I must mention Sheila Jackson; when we see her, we smile, we know that our visit will be delightful.   Sheila is a constant in our visits to The Pyramids.  We love and appreciate her unfailing kindness.The Pyramids is definitely family-friendly; the rooms are clean, the rates are very reasonable, and that pool is the magnet for our grandchildren.  Thank you for a warm, comfortable environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30155-d656024-r274552215-Quality_Inn_Allen_Plano_East-Allen_Texas.html</t>
+  </si>
+  <si>
+    <t>274552215</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Run away</t>
+  </si>
+  <si>
+    <t>Clean comfortable big suites. Will definitely be back. Hot tub room with room over looking indoor heated pool. Decent continental breakfast. Late check outs and fair prices. Bed was to die for. I slept so good. Nice pillows. Definitely recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>melmougy, General Manager at Quality Inn Allen - Plano East, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Clean comfortable big suites. Will definitely be back. Hot tub room with room over looking indoor heated pool. Decent continental breakfast. Late check outs and fair prices. Bed was to die for. I slept so good. Nice pillows. Definitely recommendMore</t>
   </si>
 </sst>
 </file>
@@ -1183,189 +1426,173 @@
       <c r="A2" t="n">
         <v>33379</v>
       </c>
-      <c r="B2" t="n">
-        <v>174100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33379</v>
       </c>
-      <c r="B3" t="n">
-        <v>174101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33379</v>
       </c>
-      <c r="B4" t="n">
-        <v>174102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
@@ -1376,8 +1603,12 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
       <c r="Y4" t="s">
         <v>72</v>
       </c>
@@ -1386,183 +1617,169 @@
       <c r="A5" t="n">
         <v>33379</v>
       </c>
-      <c r="B5" t="n">
-        <v>174103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33379</v>
       </c>
-      <c r="B6" t="n">
-        <v>1820</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" t="s">
-        <v>92</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33379</v>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1573,71 +1790,61 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>101</v>
-      </c>
-      <c r="X7" t="s">
-        <v>102</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33379</v>
       </c>
-      <c r="B8" t="n">
-        <v>2515</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1645,115 +1852,117 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33379</v>
       </c>
-      <c r="B9" t="n">
-        <v>832</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33379</v>
       </c>
-      <c r="B10" t="n">
-        <v>174104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1764,57 +1973,57 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33379</v>
       </c>
-      <c r="B11" t="n">
-        <v>3855</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1826,336 +2035,302 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33379</v>
       </c>
-      <c r="B12" t="n">
-        <v>174105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33379</v>
       </c>
-      <c r="B13" t="n">
-        <v>48747</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33379</v>
       </c>
-      <c r="B14" t="n">
-        <v>174106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>143</v>
-      </c>
-      <c r="X14" t="s">
-        <v>144</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33379</v>
       </c>
-      <c r="B15" t="n">
-        <v>9114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>169</v>
-      </c>
-      <c r="X15" t="s">
-        <v>170</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33379</v>
       </c>
-      <c r="B16" t="n">
-        <v>174107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2166,122 +2341,116 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>169</v>
-      </c>
-      <c r="X16" t="s">
-        <v>170</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33379</v>
       </c>
-      <c r="B17" t="n">
-        <v>174108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>179</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33379</v>
       </c>
-      <c r="B18" t="n">
-        <v>51051</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2292,54 +2461,58 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33379</v>
       </c>
-      <c r="B19" t="n">
-        <v>174109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>191</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2349,131 +2522,127 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33379</v>
       </c>
-      <c r="B20" t="n">
-        <v>174110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33379</v>
       </c>
-      <c r="B21" t="n">
-        <v>174111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2481,81 +2650,990 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33379</v>
       </c>
-      <c r="B22" t="n">
-        <v>174112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>211</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>190</v>
+      </c>
+      <c r="X24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" t="s">
         <v>218</v>
       </c>
-      <c r="X22" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
         <v>219</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
         <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>225</v>
+      </c>
+      <c r="X26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s">
+        <v>283</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>290</v>
+      </c>
+      <c r="X36" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33379</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>172</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
